--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H2">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I2">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J2">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N2">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O2">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P2">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q2">
-        <v>0.8862575365473332</v>
+        <v>0.984240296982222</v>
       </c>
       <c r="R2">
-        <v>7.976317828926</v>
+        <v>8.858162672839999</v>
       </c>
       <c r="S2">
-        <v>0.4619865169101132</v>
+        <v>0.4289075978591888</v>
       </c>
       <c r="T2">
-        <v>0.4619865169101131</v>
+        <v>0.4289075978591889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H3">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I3">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J3">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P3">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q3">
-        <v>0.05712833879733332</v>
+        <v>0.04391115711955555</v>
       </c>
       <c r="R3">
-        <v>0.514155049176</v>
+        <v>0.3952004140759999</v>
       </c>
       <c r="S3">
-        <v>0.0297797436630671</v>
+        <v>0.0191353970947058</v>
       </c>
       <c r="T3">
-        <v>0.02977974366306709</v>
+        <v>0.0191353970947058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H4">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I4">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J4">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N4">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q4">
-        <v>0.2176456730493333</v>
+        <v>0.1914608684791111</v>
       </c>
       <c r="R4">
-        <v>1.958811057444</v>
+        <v>1.723147816312</v>
       </c>
       <c r="S4">
-        <v>0.1134538915227026</v>
+        <v>0.08343391490390574</v>
       </c>
       <c r="T4">
-        <v>0.1134538915227026</v>
+        <v>0.08343391490390574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.616247</v>
       </c>
       <c r="I5">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J5">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N5">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O5">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P5">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q5">
-        <v>0.5780980925212221</v>
+        <v>0.8352557060488887</v>
       </c>
       <c r="R5">
-        <v>5.202882832690999</v>
+        <v>7.517301354439999</v>
       </c>
       <c r="S5">
-        <v>0.3013497918863632</v>
+        <v>0.3639837949919668</v>
       </c>
       <c r="T5">
-        <v>0.3013497918863631</v>
+        <v>0.3639837949919668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.616247</v>
       </c>
       <c r="I6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P6">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q6">
         <v>0.03726431914622222</v>
@@ -818,10 +818,10 @@
         <v>0.3353788723159999</v>
       </c>
       <c r="S6">
-        <v>0.01942506810656678</v>
+        <v>0.01623886936947171</v>
       </c>
       <c r="T6">
-        <v>0.01942506810656677</v>
+        <v>0.01623886936947171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>0.616247</v>
       </c>
       <c r="I7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N7">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q7">
-        <v>0.1419683819282222</v>
+        <v>0.1624794101324445</v>
       </c>
       <c r="R7">
-        <v>1.277715437354</v>
+        <v>1.462314691192</v>
       </c>
       <c r="S7">
-        <v>0.0740049879111873</v>
+        <v>0.07080451157624514</v>
       </c>
       <c r="T7">
-        <v>0.07400498791118729</v>
+        <v>0.07080451157624514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H8">
+        <v>0.023905</v>
+      </c>
+      <c r="I8">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J8">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.066173333333333</v>
+      </c>
+      <c r="N8">
+        <v>12.19852</v>
+      </c>
+      <c r="O8">
+        <v>0.8070107842953054</v>
+      </c>
+      <c r="P8">
+        <v>0.8070107842953055</v>
+      </c>
+      <c r="Q8">
+        <v>0.0324006245111111</v>
+      </c>
+      <c r="R8">
+        <v>0.2916056205999999</v>
+      </c>
+      <c r="S8">
+        <v>0.01411939144414977</v>
+      </c>
+      <c r="T8">
+        <v>0.01411939144414977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H9">
+        <v>0.023905</v>
+      </c>
+      <c r="I9">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J9">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.03600419273120554</v>
+      </c>
+      <c r="P9">
+        <v>0.03600419273120554</v>
+      </c>
+      <c r="Q9">
+        <v>0.001445530037777777</v>
+      </c>
+      <c r="R9">
+        <v>0.01300977034</v>
+      </c>
+      <c r="S9">
+        <v>0.0006299262670280281</v>
+      </c>
+      <c r="T9">
+        <v>0.0006299262670280281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.023905</v>
+      </c>
+      <c r="I10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7909786666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.372936</v>
+      </c>
+      <c r="O10">
+        <v>0.156985022973489</v>
+      </c>
+      <c r="P10">
+        <v>0.156985022973489</v>
+      </c>
+      <c r="Q10">
+        <v>0.006302781675555555</v>
+      </c>
+      <c r="R10">
+        <v>0.05672503508</v>
+      </c>
+      <c r="S10">
+        <v>0.002746596493338126</v>
+      </c>
+      <c r="T10">
+        <v>0.002746596493338126</v>
       </c>
     </row>
   </sheetData>
